--- a/HiRelRapport_CourantTension_Maret_Gsponer/FMECA/fmeca_table.xlsx
+++ b/HiRelRapport_CourantTension_Maret_Gsponer/FMECA/fmeca_table.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -82,21 +82,12 @@
     <t>b. End effects</t>
   </si>
   <si>
-    <t>Severity</t>
-  </si>
-  <si>
     <t>Failure detection method/ observable symptoms</t>
   </si>
   <si>
     <t>Compensation provisions</t>
   </si>
   <si>
-    <t>Severity Number SN</t>
-  </si>
-  <si>
-    <t>Probability DN/ PN</t>
-  </si>
-  <si>
     <t>Criticality Number CN</t>
   </si>
   <si>
@@ -206,6 +197,17 @@
   </si>
   <si>
     <t>Isolation</t>
+  </si>
+  <si>
+    <t>Severity SN</t>
+  </si>
+  <si>
+    <t>Detection
+DN</t>
+  </si>
+  <si>
+    <t>Occurrence
+PN</t>
   </si>
 </sst>
 </file>
@@ -414,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,10 +436,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,18 +475,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -479,33 +505,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,117 +816,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P20"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="12" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="12" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="2:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="2:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="18" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="2:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="2:18" ht="24" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -929,413 +940,435 @@
       <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="O7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="P7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-    </row>
-    <row r="9" spans="2:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="2:16" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="2:18" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="30">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <f>K10*L10*M10</f>
+        <v>4</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
-        <v>4</v>
-      </c>
-      <c r="M10" s="7">
-        <v>42370</v>
-      </c>
-      <c r="N10" s="5">
-        <v>4</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="2:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="30">
+        <v>2</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" ref="N11:N19" si="0">K11*L11*M11</f>
+        <v>4</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
+    </row>
+    <row r="12" spans="2:18" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="5">
-        <v>2</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="F12" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5">
-        <v>3</v>
-      </c>
-      <c r="M11" s="7">
-        <v>42371</v>
-      </c>
-      <c r="N11" s="5">
-        <v>6</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="2:16" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="30">
+        <v>2</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
+    </row>
+    <row r="13" spans="2:18" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5">
-        <v>3</v>
-      </c>
-      <c r="M12" s="7">
-        <v>42371</v>
-      </c>
-      <c r="N12" s="5">
-        <v>6</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="2:16" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
       <c r="L13" s="5">
-        <v>4</v>
-      </c>
-      <c r="M13" s="7">
-        <v>42370</v>
+        <v>1</v>
+      </c>
+      <c r="M13" s="30">
+        <v>1</v>
       </c>
       <c r="N13" s="5">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="2:16" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
+    </row>
+    <row r="14" spans="2:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <v>4</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="30">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="31"/>
+    </row>
+    <row r="15" spans="2:18" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="I14" s="5">
-        <v>2</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>3</v>
-      </c>
-      <c r="M14" s="7">
-        <v>42371</v>
-      </c>
-      <c r="N14" s="5">
-        <v>6</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="2:16" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5">
+        <v>4</v>
+      </c>
       <c r="L15" s="5">
-        <v>4</v>
-      </c>
-      <c r="M15" s="7">
-        <v>42370</v>
+        <v>1</v>
+      </c>
+      <c r="M15" s="30">
+        <v>1</v>
       </c>
       <c r="N15" s="5">
-        <v>4</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="2:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="31"/>
+    </row>
+    <row r="16" spans="2:18" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>4</v>
+      </c>
       <c r="L16" s="5">
-        <v>4</v>
-      </c>
-      <c r="M16" s="7">
-        <v>42370</v>
+        <v>1</v>
+      </c>
+      <c r="M16" s="30">
+        <v>2</v>
       </c>
       <c r="N16" s="5">
-        <v>4</v>
-      </c>
-      <c r="O16" s="26"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O16" s="9"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="2:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="31"/>
+    </row>
+    <row r="17" spans="2:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
+        <v>4</v>
+      </c>
       <c r="L17" s="5">
-        <v>4</v>
-      </c>
-      <c r="M17" s="7">
-        <v>42370</v>
+        <v>1</v>
+      </c>
+      <c r="M17" s="30">
+        <v>1</v>
       </c>
       <c r="N17" s="5">
-        <v>4</v>
-      </c>
-      <c r="O17" s="26"/>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="9"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="2:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="2:17" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
+        <v>4</v>
+      </c>
       <c r="L18" s="5">
-        <v>4</v>
-      </c>
-      <c r="M18" s="7">
-        <v>42370</v>
+        <v>1</v>
+      </c>
+      <c r="M18" s="30">
+        <v>1</v>
       </c>
       <c r="N18" s="5">
-        <v>4</v>
-      </c>
-      <c r="O18" s="26"/>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O18" s="9"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="2:16" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="31"/>
+    </row>
+    <row r="19" spans="2:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5">
+        <v>4</v>
+      </c>
       <c r="L19" s="5">
-        <v>4</v>
-      </c>
-      <c r="M19" s="7">
-        <v>42370</v>
+        <v>1</v>
+      </c>
+      <c r="M19" s="30">
+        <v>1</v>
       </c>
       <c r="N19" s="5">
-        <v>4</v>
-      </c>
-      <c r="O19" s="27"/>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O19" s="10"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1344,39 +1377,39 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="I6:P6"/>
     <mergeCell ref="L7:L9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="O15:O19"/>
+    <mergeCell ref="K7:K9"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="P7:P9"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="O15:O19"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
